--- a/holdings/cnbs/02-26-21.xlsx
+++ b/holdings/cnbs/02-26-21.xlsx
@@ -506,7 +506,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>02/26/2021</t>
+          <t>03/01/2021</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -536,12 +536,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.730000</t>
+          <t>0.680000</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>31997.72</t>
+          <t>29529.72</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>134967800.00</t>
+          <t>132869440.00</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>02/26/2021</t>
+          <t>03/01/2021</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -598,22 +598,22 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22.960000</t>
+          <t>22.730000</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>11627870.56</t>
+          <t>11404651.58</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>8.62%</t>
+          <t>8.58%</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>134967800.00</t>
+          <t>132869440.00</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -630,7 +630,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>02/26/2021</t>
+          <t>03/01/2021</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -660,22 +660,22 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>79.490000</t>
+          <t>80.350000</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>1217389.35</t>
+          <t>1230560.25</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.90%</t>
+          <t>0.93%</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>134967800.00</t>
+          <t>132869440.00</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -692,7 +692,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>02/26/2021</t>
+          <t>03/01/2021</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -722,22 +722,22 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>19.260000</t>
+          <t>18.350000</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>3761574.30</t>
+          <t>3583846.75</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>2.79%</t>
+          <t>2.70%</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>134967800.00</t>
+          <t>132869440.00</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -754,7 +754,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>02/26/2021</t>
+          <t>03/01/2021</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -784,22 +784,22 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>33.210000</t>
+          <t>32.750000</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>11390731.11</t>
+          <t>11232955.25</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>8.44%</t>
+          <t>8.45%</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>134967800.00</t>
+          <t>132869440.00</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -816,7 +816,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>02/26/2021</t>
+          <t>03/01/2021</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -846,22 +846,22 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>13.830000</t>
+          <t>13.200000</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>3853909.29</t>
+          <t>3678351.60</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>2.86%</t>
+          <t>2.77%</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>134967800.00</t>
+          <t>132869440.00</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -878,7 +878,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>02/26/2021</t>
+          <t>03/01/2021</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -908,22 +908,22 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>10.790000</t>
+          <t>10.450000</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>6176271.53</t>
+          <t>5981653.15</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>4.58%</t>
+          <t>4.50%</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>134967800.00</t>
+          <t>132869440.00</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -940,7 +940,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>02/26/2021</t>
+          <t>03/01/2021</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -970,22 +970,22 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>6.140000</t>
+          <t>5.980000</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>3427569.29</t>
+          <t>3307298.07</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>2.54%</t>
+          <t>2.49%</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>134967800.00</t>
+          <t>132869440.00</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1002,7 +1002,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>02/26/2021</t>
+          <t>03/01/2021</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1032,22 +1032,22 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>5.740000</t>
+          <t>5.360000</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2416207.08</t>
+          <t>2256249.12</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>1.79%</t>
+          <t>1.70%</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>134967800.00</t>
+          <t>132869440.00</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -1064,7 +1064,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>02/26/2021</t>
+          <t>03/01/2021</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1094,22 +1094,22 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>45.860000</t>
+          <t>45.630000</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>4545689.06</t>
+          <t>4522891.23</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>3.37%</t>
+          <t>3.40%</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>134967800.00</t>
+          <t>132869440.00</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1126,7 +1126,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>02/26/2021</t>
+          <t>03/01/2021</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1156,22 +1156,22 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>214.850000</t>
+          <t>214.250000</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>15857219.10</t>
+          <t>15812935.50</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>11.75%</t>
+          <t>11.90%</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>134967800.00</t>
+          <t>132869440.00</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1188,7 +1188,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>02/26/2021</t>
+          <t>03/01/2021</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1218,22 +1218,22 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>67.830000</t>
+          <t>63.480000</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>6214177.62</t>
+          <t>5815656.72</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>4.60%</t>
+          <t>4.38%</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>134967800.00</t>
+          <t>132869440.00</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1250,7 +1250,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>02/26/2021</t>
+          <t>03/01/2021</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1280,22 +1280,22 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>188.640000</t>
+          <t>195.000000</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>4665821.76</t>
+          <t>4823130.00</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>3.46%</t>
+          <t>3.63%</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>134967800.00</t>
+          <t>132869440.00</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1312,7 +1312,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>02/26/2021</t>
+          <t>03/01/2021</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1342,22 +1342,22 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>5.870000</t>
+          <t>5.530000</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>1066878.37</t>
+          <t>1005083.03</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>0.79%</t>
+          <t>0.76%</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>134967800.00</t>
+          <t>132869440.00</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1374,7 +1374,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>02/26/2021</t>
+          <t>03/01/2021</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1404,22 +1404,22 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.700000</t>
+          <t>0.650000</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>1866336.14</t>
+          <t>1716957.17</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>1.38%</t>
+          <t>1.29%</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>134967800.00</t>
+          <t>132869440.00</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1436,7 +1436,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>02/26/2021</t>
+          <t>03/01/2021</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1466,22 +1466,22 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>1.560000</t>
+          <t>1.580000</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>1872499.20</t>
+          <t>1896505.60</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>1.39%</t>
+          <t>1.43%</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>134967800.00</t>
+          <t>132869440.00</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1498,7 +1498,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>02/26/2021</t>
+          <t>03/01/2021</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1528,12 +1528,12 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3.080000</t>
+          <t>3.030000</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2938313.84</t>
+          <t>2890613.94</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>134967800.00</t>
+          <t>132869440.00</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1560,7 +1560,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>02/26/2021</t>
+          <t>03/01/2021</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1590,22 +1590,22 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>125.970000</t>
+          <t>126.090000</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>3952560.69</t>
+          <t>3956325.93</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>2.93%</t>
+          <t>2.98%</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>134967800.00</t>
+          <t>132869440.00</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1622,7 +1622,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>02/26/2021</t>
+          <t>03/01/2021</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1652,22 +1652,22 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>3.370000</t>
+          <t>3.030000</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>8513414.39</t>
+          <t>7583519.05</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>6.31%</t>
+          <t>5.71%</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>134967800.00</t>
+          <t>132869440.00</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1684,7 +1684,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>02/26/2021</t>
+          <t>03/01/2021</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1714,12 +1714,12 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>1.370000</t>
+          <t>1.330000</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>232332.82</t>
+          <t>225549.38</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>134967800.00</t>
+          <t>132869440.00</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1746,7 +1746,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>02/26/2021</t>
+          <t>03/01/2021</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1776,22 +1776,22 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>23.250000</t>
+          <t>23.760000</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>10906249.50</t>
+          <t>11145483.36</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>8.08%</t>
+          <t>8.39%</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>134967800.00</t>
+          <t>132869440.00</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
@@ -1808,7 +1808,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>02/26/2021</t>
+          <t>03/01/2021</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1838,22 +1838,22 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>24.500000</t>
+          <t>24.360000</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>1221129.00</t>
+          <t>1214151.12</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>0.90%</t>
+          <t>0.91%</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>134967800.00</t>
+          <t>132869440.00</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
@@ -1870,7 +1870,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>02/26/2021</t>
+          <t>03/01/2021</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1900,22 +1900,22 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>15.170000</t>
+          <t>15.790000</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>11435540.42</t>
+          <t>11902912.54</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>8.47%</t>
+          <t>8.96%</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>134967800.00</t>
+          <t>132869440.00</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -1932,7 +1932,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>02/26/2021</t>
+          <t>03/01/2021</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1962,22 +1962,22 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.360000</t>
+          <t>0.340000</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>611362.69</t>
+          <t>572044.26</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>0.45%</t>
+          <t>0.43%</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>134967800.00</t>
+          <t>132869440.00</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -1994,7 +1994,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>02/26/2021</t>
+          <t>03/01/2021</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -2024,22 +2024,22 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>3.930000</t>
+          <t>3.740000</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>1789722.00</t>
+          <t>1703196.00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1.33%</t>
+          <t>1.28%</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>134967800.00</t>
+          <t>132869440.00</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2056,7 +2056,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>02/26/2021</t>
+          <t>03/01/2021</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -2086,22 +2086,22 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>4.460000</t>
+          <t>4.495000</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>1199418.88</t>
+          <t>1208831.36</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>0.89%</t>
+          <t>0.91%</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>134967800.00</t>
+          <t>132869440.00</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
